--- a/2ИСИП-321/2ИСИП-321_Сети.xlsx
+++ b/2ИСИП-321/2ИСИП-321_Сети.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v1_Git0\_2ИСИП-321\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64249C76-B02D-4130-9E8C-3C8BADFAADE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2C5337-CB36-42C7-90E1-EDC041D23664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,10 +492,10 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1057,6 +1057,9 @@
       <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
       <c r="D23" s="2">
         <v>5</v>
       </c>

--- a/2ИСИП-321/2ИСИП-321_Сети.xlsx
+++ b/2ИСИП-321/2ИСИП-321_Сети.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\2ИСИП-321\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2C5337-CB36-42C7-90E1-EDC041D23664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3113AC1-2EBA-4ABA-969A-E0D6E56EC3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Аушев Ибрагим</t>
   </si>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t>Тест</t>
+  </si>
+  <si>
+    <t>Лаб_2</t>
+  </si>
+  <si>
+    <t>Лаб_3</t>
+  </si>
+  <si>
+    <t>Лаб_4</t>
+  </si>
+  <si>
+    <t>Лаб_5</t>
   </si>
 </sst>
 </file>
@@ -137,12 +149,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -172,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -185,6 +203,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -495,7 +517,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="D10" activeCellId="7" sqref="D21 D23 D26 C23 C22 C29 D11 D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -535,10 +557,18 @@
       <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -710,7 +740,7 @@
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="6">
         <v>5</v>
       </c>
       <c r="E10" s="2"/>
@@ -738,7 +768,7 @@
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="6">
         <v>5</v>
       </c>
       <c r="E11" s="2"/>
@@ -1000,7 +1030,7 @@
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1026,7 +1056,7 @@
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="7">
         <v>5</v>
       </c>
       <c r="D22" s="2">
@@ -1057,10 +1087,10 @@
       <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="7">
         <v>5</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="6">
         <v>5</v>
       </c>
       <c r="E23" s="2"/>
@@ -1140,7 +1170,7 @@
       <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="6">
         <v>5</v>
       </c>
       <c r="E26" s="2"/>
@@ -1220,7 +1250,7 @@
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="7">
         <v>5</v>
       </c>
       <c r="D29" s="2"/>

--- a/2ИСИП-321/2ИСИП-321_Сети.xlsx
+++ b/2ИСИП-321/2ИСИП-321_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3113AC1-2EBA-4ABA-969A-E0D6E56EC3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF98580A-C730-49AF-BC86-50B6FF55E81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,12 +201,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -514,10 +514,10 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D10" activeCellId="7" sqref="D21 D23 D26 C23 C22 C29 D11 D10"/>
+      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -528,27 +528,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
     </row>
     <row r="3" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -740,7 +740,7 @@
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>5</v>
       </c>
       <c r="E10" s="2"/>
@@ -768,7 +768,7 @@
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>5</v>
       </c>
       <c r="E11" s="2"/>
@@ -1030,7 +1030,9 @@
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="4">
+        <v>5</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1056,7 +1058,7 @@
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="5">
         <v>5</v>
       </c>
       <c r="D22" s="2">
@@ -1087,10 +1089,10 @@
       <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="5">
         <v>5</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="4">
         <v>5</v>
       </c>
       <c r="E23" s="2"/>
@@ -1170,7 +1172,7 @@
       <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="4">
         <v>5</v>
       </c>
       <c r="E26" s="2"/>
@@ -1250,7 +1252,7 @@
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="5">
         <v>5</v>
       </c>
       <c r="D29" s="2"/>

--- a/2ИСИП-321/2ИСИП-321_Сети.xlsx
+++ b/2ИСИП-321/2ИСИП-321_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473F9555-F9C3-493B-A92B-C4A10A3DA81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0457577C-9EF3-4CFF-B55A-3AF8DB68EC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,7 +155,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +165,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -211,6 +217,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -520,10 +527,10 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J30" activeCellId="4" sqref="J7 J12 J21 J23 J30"/>
+      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -534,27 +541,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
     </row>
     <row r="3" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -719,11 +726,16 @@
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C8" s="6">
+        <v>5</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -875,7 +887,9 @@
         <v>5</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <v>5</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="4">
         <v>5</v>
@@ -898,6 +912,9 @@
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="C13" s="6">
+        <v>5</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -940,7 +957,9 @@
         <v>5</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2">
+        <v>5</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1000,9 +1019,13 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <v>5</v>
+      </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2">
+        <v>5</v>
+      </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1129,9 +1152,13 @@
       <c r="G20" s="4">
         <v>5</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <v>5</v>
+      </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="J20" s="2">
+        <v>5</v>
+      </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1465,7 +1492,9 @@
       <c r="H30" s="4">
         <v>5</v>
       </c>
-      <c r="I30" s="2"/>
+      <c r="I30" s="2">
+        <v>5</v>
+      </c>
       <c r="J30" s="4">
         <v>5</v>
       </c>
@@ -1497,9 +1526,13 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2">
+        <v>5</v>
+      </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="J31" s="2">
+        <v>5</v>
+      </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>

--- a/2ИСИП-321/2ИСИП-321_Сети.xlsx
+++ b/2ИСИП-321/2ИСИП-321_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0457577C-9EF3-4CFF-B55A-3AF8DB68EC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97397F7D-3B17-4DD4-8538-225E06849C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,10 +527,10 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -729,7 +729,9 @@
       <c r="C8" s="6">
         <v>5</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -886,7 +888,9 @@
       <c r="F12" s="4">
         <v>5</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2">
+        <v>5</v>
+      </c>
       <c r="H12" s="2">
         <v>5</v>
       </c>
@@ -916,7 +920,9 @@
       <c r="C13" s="6">
         <v>5</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1187,8 +1193,12 @@
       <c r="E21" s="4">
         <v>5</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="F21" s="2">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2">
+        <v>5</v>
+      </c>
       <c r="H21" s="4">
         <v>5</v>
       </c>

--- a/2ИСИП-321/2ИСИП-321_Сети.xlsx
+++ b/2ИСИП-321/2ИСИП-321_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97397F7D-3B17-4DD4-8538-225E06849C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644E5203-A45A-4C63-9F58-46641DFCBF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,10 +527,10 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -739,7 +739,9 @@
         <v>5</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2">
+        <v>5</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1054,10 +1056,16 @@
       <c r="D17" s="4">
         <v>5</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="E17" s="2">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2">
+        <v>5</v>
+      </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <v>5</v>
+      </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1092,7 +1100,9 @@
         <v>5</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="J18" s="2">
+        <v>5</v>
+      </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1533,9 +1543,15 @@
       <c r="D31" s="4">
         <v>5</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="F31" s="2">
+        <v>5</v>
+      </c>
+      <c r="G31" s="2">
+        <v>5</v>
+      </c>
       <c r="H31" s="2">
         <v>5</v>
       </c>

--- a/2ИСИП-321/2ИСИП-321_Сети.xlsx
+++ b/2ИСИП-321/2ИСИП-321_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644E5203-A45A-4C63-9F58-46641DFCBF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5478C4A5-2878-48BD-BEDA-7F8A917F3989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,7 +155,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,12 +165,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -202,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -217,7 +211,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -530,7 +523,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="J31" activeCellId="2" sqref="J18 J20 J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -541,27 +534,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
     </row>
     <row r="3" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -726,20 +719,20 @@
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="6">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8" s="5">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4">
         <v>5</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2">
+      <c r="H8" s="4">
         <v>5</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="2">
+      <c r="J8" s="4">
         <v>5</v>
       </c>
       <c r="K8" s="2"/>
@@ -890,10 +883,10 @@
       <c r="F12" s="4">
         <v>5</v>
       </c>
-      <c r="G12" s="2">
-        <v>5</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="G12" s="4">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4">
         <v>5</v>
       </c>
       <c r="I12" s="2"/>
@@ -919,10 +912,10 @@
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="6">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="C13" s="5">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4">
         <v>5</v>
       </c>
       <c r="E13" s="2"/>
@@ -965,7 +958,7 @@
         <v>5</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="2">
+      <c r="J14" s="4">
         <v>5</v>
       </c>
       <c r="K14" s="2"/>
@@ -1027,11 +1020,11 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="2">
+      <c r="H16" s="4">
         <v>5</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="2">
+      <c r="J16" s="4">
         <v>5</v>
       </c>
       <c r="K16" s="2"/>
@@ -1056,14 +1049,14 @@
       <c r="D17" s="4">
         <v>5</v>
       </c>
-      <c r="E17" s="2">
-        <v>5</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="E17" s="4">
+        <v>5</v>
+      </c>
+      <c r="F17" s="4">
         <v>5</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="2">
+      <c r="H17" s="4">
         <v>5</v>
       </c>
       <c r="I17" s="2"/>
@@ -1100,7 +1093,7 @@
         <v>5</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="2">
+      <c r="J18" s="4">
         <v>5</v>
       </c>
       <c r="K18" s="2"/>
@@ -1168,11 +1161,11 @@
       <c r="G20" s="4">
         <v>5</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="4">
         <v>5</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="2">
+      <c r="J20" s="4">
         <v>5</v>
       </c>
       <c r="K20" s="2"/>
@@ -1203,10 +1196,10 @@
       <c r="E21" s="4">
         <v>5</v>
       </c>
-      <c r="F21" s="2">
-        <v>5</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="F21" s="4">
+        <v>5</v>
+      </c>
+      <c r="G21" s="4">
         <v>5</v>
       </c>
       <c r="H21" s="4">
@@ -1512,7 +1505,7 @@
       <c r="H30" s="4">
         <v>5</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="4">
         <v>5</v>
       </c>
       <c r="J30" s="4">
@@ -1543,20 +1536,20 @@
       <c r="D31" s="4">
         <v>5</v>
       </c>
-      <c r="E31" s="2">
-        <v>5</v>
-      </c>
-      <c r="F31" s="2">
-        <v>5</v>
-      </c>
-      <c r="G31" s="2">
-        <v>5</v>
-      </c>
-      <c r="H31" s="2">
+      <c r="E31" s="4">
+        <v>5</v>
+      </c>
+      <c r="F31" s="4">
+        <v>5</v>
+      </c>
+      <c r="G31" s="4">
+        <v>5</v>
+      </c>
+      <c r="H31" s="4">
         <v>5</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="2">
+      <c r="J31" s="4">
         <v>5</v>
       </c>
       <c r="K31" s="2"/>

--- a/2ИСИП-321/2ИСИП-321_Сети.xlsx
+++ b/2ИСИП-321/2ИСИП-321_Сети.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5478C4A5-2878-48BD-BEDA-7F8A917F3989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1702022-6ADB-4494-8BB8-CFDB94900F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Аушев Ибрагим</t>
   </si>
@@ -103,43 +103,43 @@
     <t>Яковенко Михаил</t>
   </si>
   <si>
-    <t>Лаб_1</t>
-  </si>
-  <si>
     <t>Тест</t>
   </si>
   <si>
-    <t>Лаб_2</t>
-  </si>
-  <si>
-    <t>Лаб_3</t>
-  </si>
-  <si>
-    <t>Лаб_4</t>
-  </si>
-  <si>
-    <t>Лаб_5</t>
-  </si>
-  <si>
-    <t>Лаб_6</t>
-  </si>
-  <si>
-    <t>Лаб_7</t>
+    <t>Л_1</t>
+  </si>
+  <si>
+    <t>Л_2</t>
+  </si>
+  <si>
+    <t>Л_3</t>
+  </si>
+  <si>
+    <t>Л_4</t>
+  </si>
+  <si>
+    <t>Л_5</t>
+  </si>
+  <si>
+    <t>Л_6</t>
+  </si>
+  <si>
+    <t>Л_7</t>
+  </si>
+  <si>
+    <t>Л_8</t>
+  </si>
+  <si>
+    <t>Л_9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -196,23 +196,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -517,70 +515,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J31" activeCellId="2" sqref="J18 J20 J31"/>
+      <selection pane="bottomRight" activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.1796875" customWidth="1"/>
     <col min="2" max="2" width="41.6328125" customWidth="1"/>
-    <col min="3" max="21" width="5.1796875" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="10" width="3.26953125" customWidth="1"/>
+    <col min="11" max="21" width="5.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-    </row>
-    <row r="3" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="1" spans="1:21" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:21" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="K2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -593,32 +595,43 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="13" x14ac:dyDescent="0.25">
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-    </row>
-    <row r="5" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C5" s="5">
         <v>5</v>
@@ -644,12 +657,12 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
@@ -660,9 +673,15 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="H6" s="4">
+        <v>5</v>
+      </c>
+      <c r="I6" s="4">
+        <v>5</v>
+      </c>
+      <c r="J6" s="4">
+        <v>5</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -675,12 +694,12 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="C7" s="5">
         <v>5</v>
@@ -694,9 +713,7 @@
       <c r="H7" s="4">
         <v>5</v>
       </c>
-      <c r="I7" s="4">
-        <v>5</v>
-      </c>
+      <c r="I7" s="2"/>
       <c r="J7" s="4">
         <v>5</v>
       </c>
@@ -712,29 +729,33 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C8" s="5">
         <v>5</v>
       </c>
       <c r="D8" s="4">
         <v>5</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="E8" s="4">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5</v>
+      </c>
       <c r="H8" s="4">
         <v>5</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="4">
-        <v>5</v>
-      </c>
+      <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -747,12 +768,12 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="5">
         <v>5</v>
@@ -763,19 +784,21 @@
       <c r="E9" s="4">
         <v>5</v>
       </c>
-      <c r="F9" s="4">
-        <v>5</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="4">
         <v>5</v>
       </c>
       <c r="H9" s="4">
         <v>5</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="4">
+        <v>5</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="L9" s="2">
+        <v>5</v>
+      </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -786,13 +809,13 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C10" s="5">
         <v>5</v>
       </c>
@@ -802,10 +825,10 @@
       <c r="E10" s="4">
         <v>5</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="4">
-        <v>5</v>
-      </c>
+      <c r="F10" s="4">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2"/>
       <c r="H10" s="4">
         <v>5</v>
       </c>
@@ -814,7 +837,9 @@
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="L10" s="2">
+        <v>5</v>
+      </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -825,13 +850,13 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C11" s="5">
         <v>5</v>
       </c>
@@ -844,16 +869,20 @@
       <c r="F11" s="4">
         <v>5</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="4">
+        <v>5</v>
+      </c>
       <c r="H11" s="4">
         <v>5</v>
       </c>
-      <c r="I11" s="4">
-        <v>5</v>
-      </c>
-      <c r="J11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="4">
+        <v>5</v>
+      </c>
       <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="L11" s="2">
+        <v>5</v>
+      </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -864,35 +893,25 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C12" s="5">
         <v>5</v>
       </c>
       <c r="D12" s="4">
         <v>5</v>
       </c>
-      <c r="E12" s="4">
-        <v>5</v>
-      </c>
-      <c r="F12" s="4">
-        <v>5</v>
-      </c>
-      <c r="G12" s="4">
-        <v>5</v>
-      </c>
-      <c r="H12" s="4">
-        <v>5</v>
-      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="4">
-        <v>5</v>
-      </c>
+      <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -905,25 +924,31 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C13" s="5">
         <v>5</v>
       </c>
       <c r="D13" s="4">
         <v>5</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="4">
+        <v>5</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="4">
+        <v>5</v>
+      </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="J13" s="4">
+        <v>5</v>
+      </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -936,31 +961,25 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C14" s="5">
         <v>5</v>
       </c>
       <c r="D14" s="4">
         <v>5</v>
       </c>
-      <c r="E14" s="4">
-        <v>5</v>
-      </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="4">
-        <v>5</v>
-      </c>
+      <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="4">
-        <v>5</v>
-      </c>
+      <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -973,12 +992,12 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C15" s="5">
         <v>5</v>
@@ -989,9 +1008,13 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="4">
+        <v>5</v>
+      </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="J15" s="4">
+        <v>5</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1004,29 +1027,28 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:23" ht="13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="5">
-        <v>5</v>
-      </c>
       <c r="D16" s="4">
         <v>5</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="E16" s="4">
+        <v>5</v>
+      </c>
+      <c r="F16" s="4">
+        <v>5</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="4">
         <v>5</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="4">
-        <v>5</v>
-      </c>
+      <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1041,26 +1063,27 @@
     </row>
     <row r="17" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
+      <c r="C17" s="5">
+        <v>5</v>
       </c>
       <c r="D17" s="4">
         <v>5</v>
       </c>
-      <c r="E17" s="4">
-        <v>5</v>
-      </c>
-      <c r="F17" s="4">
-        <v>5</v>
-      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="4">
         <v>5</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="J17" s="4">
+        <v>5</v>
+      </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1075,10 +1098,10 @@
     </row>
     <row r="18" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C18" s="5">
         <v>5</v>
@@ -1089,13 +1112,9 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="4">
-        <v>5</v>
-      </c>
+      <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="4">
-        <v>5</v>
-      </c>
+      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1110,23 +1129,33 @@
     </row>
     <row r="19" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C19" s="5">
         <v>5</v>
       </c>
       <c r="D19" s="4">
         <v>5</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="E19" s="4">
+        <v>5</v>
+      </c>
+      <c r="F19" s="4">
+        <v>5</v>
+      </c>
+      <c r="G19" s="4">
+        <v>5</v>
+      </c>
+      <c r="H19" s="4">
+        <v>5</v>
+      </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="J19" s="4">
+        <v>5</v>
+      </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1141,11 +1170,11 @@
     </row>
     <row r="20" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C20" s="5">
         <v>5</v>
       </c>
@@ -1164,7 +1193,9 @@
       <c r="H20" s="4">
         <v>5</v>
       </c>
-      <c r="I20" s="2"/>
+      <c r="I20" s="4">
+        <v>5</v>
+      </c>
       <c r="J20" s="4">
         <v>5</v>
       </c>
@@ -1182,11 +1213,11 @@
     </row>
     <row r="21" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C21" s="5">
         <v>5</v>
       </c>
@@ -1199,20 +1230,18 @@
       <c r="F21" s="4">
         <v>5</v>
       </c>
-      <c r="G21" s="4">
-        <v>5</v>
-      </c>
+      <c r="G21" s="2"/>
       <c r="H21" s="4">
         <v>5</v>
       </c>
       <c r="I21" s="4">
         <v>5</v>
       </c>
-      <c r="J21" s="4">
-        <v>5</v>
-      </c>
+      <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="L21" s="2">
+        <v>5</v>
+      </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -1225,10 +1254,10 @@
     </row>
     <row r="22" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C22" s="5">
         <v>5</v>
@@ -1249,9 +1278,13 @@
       <c r="I22" s="4">
         <v>5</v>
       </c>
-      <c r="J22" s="2"/>
+      <c r="J22" s="4">
+        <v>5</v>
+      </c>
       <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="L22" s="2">
+        <v>5</v>
+      </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -1264,33 +1297,18 @@
     </row>
     <row r="23" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="5">
-        <v>5</v>
-      </c>
-      <c r="D23" s="4">
-        <v>5</v>
-      </c>
-      <c r="E23" s="4">
-        <v>5</v>
-      </c>
-      <c r="F23" s="4">
-        <v>5</v>
-      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="4">
-        <v>5</v>
-      </c>
-      <c r="I23" s="4">
-        <v>5</v>
-      </c>
-      <c r="J23" s="4">
-        <v>5</v>
-      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -1305,10 +1323,10 @@
     </row>
     <row r="24" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1331,12 +1349,17 @@
     </row>
     <row r="25" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="2"/>
+      <c r="C25" s="5">
+        <v>5</v>
+      </c>
+      <c r="D25" s="4">
+        <v>5</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1344,7 +1367,9 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+      <c r="L25" s="2">
+        <v>5</v>
+      </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -1357,25 +1382,37 @@
     </row>
     <row r="26" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="C26" s="5">
         <v>5</v>
       </c>
       <c r="D26" s="4">
         <v>5</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="E26" s="4">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4">
+        <v>5</v>
+      </c>
+      <c r="G26" s="4">
+        <v>5</v>
+      </c>
+      <c r="H26" s="4">
+        <v>5</v>
+      </c>
+      <c r="I26" s="2">
+        <v>5</v>
+      </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
+      <c r="L26" s="2">
+        <v>5</v>
+      </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -1388,29 +1425,16 @@
     </row>
     <row r="27" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="5">
-        <v>5</v>
-      </c>
-      <c r="D27" s="4">
-        <v>5</v>
-      </c>
-      <c r="E27" s="4">
-        <v>5</v>
-      </c>
-      <c r="F27" s="4">
-        <v>5</v>
-      </c>
-      <c r="G27" s="4">
-        <v>5</v>
-      </c>
-      <c r="H27" s="4">
-        <v>5</v>
-      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -1427,10 +1451,13 @@
     </row>
     <row r="28" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>23</v>
+      <c r="C28" s="5">
+        <v>5</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1440,7 +1467,9 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
+      <c r="L28" s="2">
+        <v>5</v>
+      </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -1453,21 +1482,35 @@
     </row>
     <row r="29" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C29" s="5">
         <v>5</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="D29" s="4">
+        <v>5</v>
+      </c>
+      <c r="E29" s="4">
+        <v>5</v>
+      </c>
+      <c r="F29" s="4">
+        <v>5</v>
+      </c>
+      <c r="G29" s="4">
+        <v>5</v>
+      </c>
+      <c r="H29" s="4">
+        <v>5</v>
+      </c>
+      <c r="I29" s="4">
+        <v>5</v>
+      </c>
+      <c r="J29" s="4">
+        <v>5</v>
+      </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -1482,11 +1525,11 @@
     </row>
     <row r="30" spans="1:21" ht="13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C30" s="5">
         <v>5</v>
       </c>
@@ -1505,9 +1548,7 @@
       <c r="H30" s="4">
         <v>5</v>
       </c>
-      <c r="I30" s="4">
-        <v>5</v>
-      </c>
+      <c r="I30" s="2"/>
       <c r="J30" s="4">
         <v>5</v>
       </c>
@@ -1523,72 +1564,28 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" ht="13" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>27</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="5">
-        <v>5</v>
-      </c>
-      <c r="D31" s="4">
-        <v>5</v>
-      </c>
-      <c r="E31" s="4">
-        <v>5</v>
-      </c>
-      <c r="F31" s="4">
-        <v>5</v>
-      </c>
-      <c r="G31" s="4">
-        <v>5</v>
-      </c>
-      <c r="H31" s="4">
-        <v>5</v>
-      </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="4">
-        <v>5</v>
-      </c>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="1">
-    <mergeCell ref="C1:W1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2ИСИП-321/2ИСИП-321_Сети.xlsx
+++ b/2ИСИП-321/2ИСИП-321_Сети.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\2ИСИП-321\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1702022-6ADB-4494-8BB8-CFDB94900F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D27AD49-B74A-4B44-BAC9-FA0964400AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -521,7 +521,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L28" sqref="L28"/>
+      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -974,11 +974,21 @@
       <c r="D14" s="4">
         <v>5</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="E14" s="2">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2">
+        <v>5</v>
+      </c>
+      <c r="H14" s="2">
+        <v>5</v>
+      </c>
+      <c r="I14" s="2">
+        <v>5</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1302,12 +1312,18 @@
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>5</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="H23" s="2">
+        <v>5</v>
+      </c>
+      <c r="I23" s="2">
+        <v>5</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>

--- a/2ИСИП-321/2ИСИП-321_Сети.xlsx
+++ b/2ИСИП-321/2ИСИП-321_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D27AD49-B74A-4B44-BAC9-FA0964400AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1981F5ED-D7E0-452E-89C9-20B3477785CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Аушев Ибрагим</t>
   </si>
@@ -103,9 +103,6 @@
     <t>Яковенко Михаил</t>
   </si>
   <si>
-    <t>Тест</t>
-  </si>
-  <si>
     <t>Л_1</t>
   </si>
   <si>
@@ -131,6 +128,18 @@
   </si>
   <si>
     <t>Л_9</t>
+  </si>
+  <si>
+    <t>Л_10</t>
+  </si>
+  <si>
+    <t>Т_1</t>
+  </si>
+  <si>
+    <t>Т_2</t>
+  </si>
+  <si>
+    <t>Т_3</t>
   </si>
 </sst>
 </file>
@@ -155,7 +164,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +174,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -211,6 +226,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -518,56 +534,62 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.1796875" customWidth="1"/>
     <col min="2" max="2" width="41.6328125" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="10" width="3.26953125" customWidth="1"/>
+    <col min="3" max="5" width="3.81640625" customWidth="1"/>
+    <col min="6" max="10" width="3.26953125" customWidth="1"/>
     <col min="11" max="21" width="5.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:21" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -575,9 +597,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+    <row r="3" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -595,7 +615,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -605,11 +625,9 @@
       <c r="C4" s="5">
         <v>5</v>
       </c>
-      <c r="D4" s="4">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="4">
+        <v>5</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -626,7 +644,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -636,11 +654,9 @@
       <c r="C5" s="5">
         <v>5</v>
       </c>
-      <c r="D5" s="4">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="4">
+        <v>5</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -657,7 +673,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -667,23 +683,21 @@
       <c r="C6" s="5">
         <v>5</v>
       </c>
-      <c r="D6" s="4">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="4">
+        <v>5</v>
+      </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="4">
-        <v>5</v>
-      </c>
-      <c r="I6" s="4">
-        <v>5</v>
-      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
       <c r="J6" s="4">
         <v>5</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="K6" s="4">
+        <v>5</v>
+      </c>
+      <c r="L6" s="4">
+        <v>5</v>
+      </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -694,7 +708,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -704,21 +718,19 @@
       <c r="C7" s="5">
         <v>5</v>
       </c>
-      <c r="D7" s="4">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="4">
+        <v>5</v>
+      </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="4">
-        <v>5</v>
-      </c>
+      <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="4">
         <v>5</v>
       </c>
       <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="L7" s="4">
+        <v>5</v>
+      </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -729,7 +741,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -739,12 +751,6 @@
       <c r="C8" s="5">
         <v>5</v>
       </c>
-      <c r="D8" s="4">
-        <v>5</v>
-      </c>
-      <c r="E8" s="4">
-        <v>5</v>
-      </c>
       <c r="F8" s="4">
         <v>5</v>
       </c>
@@ -754,8 +760,12 @@
       <c r="H8" s="4">
         <v>5</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="I8" s="4">
+        <v>5</v>
+      </c>
+      <c r="J8" s="4">
+        <v>5</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -768,7 +778,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -778,29 +788,27 @@
       <c r="C9" s="5">
         <v>5</v>
       </c>
-      <c r="D9" s="4">
-        <v>5</v>
-      </c>
-      <c r="E9" s="4">
-        <v>5</v>
-      </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="4">
+        <v>5</v>
+      </c>
       <c r="G9" s="4">
         <v>5</v>
       </c>
-      <c r="H9" s="4">
-        <v>5</v>
-      </c>
+      <c r="H9" s="2"/>
       <c r="I9" s="4">
         <v>5</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2">
-        <v>5</v>
-      </c>
+      <c r="J9" s="4">
+        <v>5</v>
+      </c>
+      <c r="K9" s="4">
+        <v>5</v>
+      </c>
+      <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="N9" s="2">
+        <v>5</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -809,7 +817,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -819,29 +827,35 @@
       <c r="C10" s="5">
         <v>5</v>
       </c>
-      <c r="D10" s="4">
-        <v>5</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
         <v>5</v>
       </c>
       <c r="F10" s="4">
         <v>5</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="4">
+        <v>5</v>
+      </c>
       <c r="H10" s="4">
         <v>5</v>
       </c>
-      <c r="I10" s="4">
-        <v>5</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="4">
+        <v>5</v>
+      </c>
+      <c r="K10" s="4">
+        <v>5</v>
+      </c>
       <c r="L10" s="2">
         <v>5</v>
       </c>
       <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="N10" s="2">
+        <v>5</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -850,7 +864,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -860,12 +874,6 @@
       <c r="C11" s="5">
         <v>5</v>
       </c>
-      <c r="D11" s="4">
-        <v>5</v>
-      </c>
-      <c r="E11" s="4">
-        <v>5</v>
-      </c>
       <c r="F11" s="4">
         <v>5</v>
       </c>
@@ -875,16 +883,20 @@
       <c r="H11" s="4">
         <v>5</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="4">
+        <v>5</v>
+      </c>
       <c r="J11" s="4">
         <v>5</v>
       </c>
       <c r="K11" s="2"/>
-      <c r="L11" s="2">
+      <c r="L11" s="4">
         <v>5</v>
       </c>
       <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="N11" s="2">
+        <v>5</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -893,7 +905,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -903,11 +915,9 @@
       <c r="C12" s="5">
         <v>5</v>
       </c>
-      <c r="D12" s="4">
-        <v>5</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="4">
+        <v>5</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -924,7 +934,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -934,23 +944,21 @@
       <c r="C13" s="5">
         <v>5</v>
       </c>
-      <c r="D13" s="4">
-        <v>5</v>
-      </c>
-      <c r="E13" s="4">
-        <v>5</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="4">
-        <v>5</v>
-      </c>
+      <c r="F13" s="4">
+        <v>5</v>
+      </c>
+      <c r="G13" s="4">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="4">
         <v>5</v>
       </c>
       <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="L13" s="4">
+        <v>5</v>
+      </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -961,7 +969,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -971,13 +979,13 @@
       <c r="C14" s="5">
         <v>5</v>
       </c>
-      <c r="D14" s="4">
-        <v>5</v>
-      </c>
-      <c r="E14" s="2">
-        <v>5</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14" s="4">
         <v>5</v>
       </c>
       <c r="G14" s="2">
@@ -989,9 +997,15 @@
       <c r="I14" s="2">
         <v>5</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="J14" s="2">
+        <v>5</v>
+      </c>
+      <c r="K14" s="2">
+        <v>5</v>
+      </c>
+      <c r="L14" s="2">
+        <v>5</v>
+      </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -1002,7 +1016,7 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1012,21 +1026,25 @@
       <c r="C15" s="5">
         <v>5</v>
       </c>
-      <c r="D15" s="4">
-        <v>5</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4">
+        <v>5</v>
+      </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="4">
-        <v>5</v>
-      </c>
+      <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="4">
         <v>5</v>
       </c>
       <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="L15" s="4">
+        <v>5</v>
+      </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -1037,28 +1055,26 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="4">
-        <v>5</v>
-      </c>
-      <c r="E16" s="4">
-        <v>5</v>
-      </c>
       <c r="F16" s="4">
         <v>5</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="4">
+        <v>5</v>
+      </c>
       <c r="H16" s="4">
         <v>5</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="J16" s="4">
+        <v>5</v>
+      </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1071,7 +1087,7 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1081,21 +1097,19 @@
       <c r="C17" s="5">
         <v>5</v>
       </c>
-      <c r="D17" s="4">
-        <v>5</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="4">
+        <v>5</v>
+      </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="4">
-        <v>5</v>
-      </c>
+      <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="4">
         <v>5</v>
       </c>
       <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="L17" s="4">
+        <v>5</v>
+      </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -1106,7 +1120,7 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1116,11 +1130,9 @@
       <c r="C18" s="5">
         <v>5</v>
       </c>
-      <c r="D18" s="4">
-        <v>5</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="4">
+        <v>5</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1137,7 +1149,7 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1147,12 +1159,6 @@
       <c r="C19" s="5">
         <v>5</v>
       </c>
-      <c r="D19" s="4">
-        <v>5</v>
-      </c>
-      <c r="E19" s="4">
-        <v>5</v>
-      </c>
       <c r="F19" s="4">
         <v>5</v>
       </c>
@@ -1162,12 +1168,16 @@
       <c r="H19" s="4">
         <v>5</v>
       </c>
-      <c r="I19" s="2"/>
+      <c r="I19" s="4">
+        <v>5</v>
+      </c>
       <c r="J19" s="4">
         <v>5</v>
       </c>
       <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
+      <c r="L19" s="4">
+        <v>5</v>
+      </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -1178,7 +1188,7 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1188,10 +1198,10 @@
       <c r="C20" s="5">
         <v>5</v>
       </c>
-      <c r="D20" s="4">
-        <v>5</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
         <v>5</v>
       </c>
       <c r="F20" s="4">
@@ -1209,8 +1219,12 @@
       <c r="J20" s="4">
         <v>5</v>
       </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="K20" s="4">
+        <v>5</v>
+      </c>
+      <c r="L20" s="4">
+        <v>5</v>
+      </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -1221,7 +1235,7 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1231,29 +1245,27 @@
       <c r="C21" s="5">
         <v>5</v>
       </c>
-      <c r="D21" s="4">
-        <v>5</v>
-      </c>
-      <c r="E21" s="4">
-        <v>5</v>
-      </c>
       <c r="F21" s="4">
         <v>5</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" s="4">
+        <v>5</v>
+      </c>
       <c r="H21" s="4">
         <v>5</v>
       </c>
-      <c r="I21" s="4">
-        <v>5</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2">
-        <v>5</v>
-      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="4">
+        <v>5</v>
+      </c>
+      <c r="K21" s="4">
+        <v>5</v>
+      </c>
+      <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="N21" s="2">
+        <v>5</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
@@ -1262,7 +1274,7 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1272,31 +1284,35 @@
       <c r="C22" s="5">
         <v>5</v>
       </c>
-      <c r="D22" s="4">
-        <v>5</v>
-      </c>
-      <c r="E22" s="4">
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
         <v>5</v>
       </c>
       <c r="F22" s="4">
         <v>5</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="4">
+        <v>5</v>
+      </c>
       <c r="H22" s="4">
         <v>5</v>
       </c>
-      <c r="I22" s="4">
-        <v>5</v>
-      </c>
+      <c r="I22" s="2"/>
       <c r="J22" s="4">
         <v>5</v>
       </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2">
+      <c r="K22" s="4">
+        <v>5</v>
+      </c>
+      <c r="L22" s="4">
         <v>5</v>
       </c>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="N22" s="2">
+        <v>5</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -1305,30 +1321,41 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="2">
-        <v>5</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="C23" s="6">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23" s="2">
+        <v>5</v>
+      </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="2">
-        <v>5</v>
-      </c>
-      <c r="I23" s="2">
-        <v>5</v>
-      </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2">
+        <v>5</v>
+      </c>
+      <c r="K23" s="2">
+        <v>5</v>
+      </c>
+      <c r="L23" s="2">
+        <v>5</v>
+      </c>
       <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="N23" s="2">
+        <v>5</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -1337,15 +1364,13 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1363,7 +1388,7 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1373,21 +1398,19 @@
       <c r="C25" s="5">
         <v>5</v>
       </c>
-      <c r="D25" s="4">
-        <v>5</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="F25" s="4">
+        <v>5</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="2">
-        <v>5</v>
-      </c>
+      <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="N25" s="2">
+        <v>5</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -1396,7 +1419,7 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
     </row>
-    <row r="26" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1406,12 +1429,6 @@
       <c r="C26" s="5">
         <v>5</v>
       </c>
-      <c r="D26" s="4">
-        <v>5</v>
-      </c>
-      <c r="E26" s="4">
-        <v>5</v>
-      </c>
       <c r="F26" s="4">
         <v>5</v>
       </c>
@@ -1421,17 +1438,23 @@
       <c r="H26" s="4">
         <v>5</v>
       </c>
-      <c r="I26" s="2">
-        <v>5</v>
-      </c>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2">
-        <v>5</v>
-      </c>
+      <c r="I26" s="4">
+        <v>5</v>
+      </c>
+      <c r="J26" s="4">
+        <v>5</v>
+      </c>
+      <c r="K26" s="2">
+        <v>5</v>
+      </c>
+      <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="N26" s="2">
+        <v>5</v>
+      </c>
+      <c r="O26" s="2">
+        <v>5</v>
+      </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
@@ -1439,15 +1462,13 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1465,7 +1486,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1475,19 +1496,17 @@
       <c r="C28" s="5">
         <v>5</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="2">
-        <v>5</v>
-      </c>
+      <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="N28" s="2">
+        <v>5</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -1496,7 +1515,7 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1506,12 +1525,6 @@
       <c r="C29" s="5">
         <v>5</v>
       </c>
-      <c r="D29" s="4">
-        <v>5</v>
-      </c>
-      <c r="E29" s="4">
-        <v>5</v>
-      </c>
       <c r="F29" s="4">
         <v>5</v>
       </c>
@@ -1527,8 +1540,12 @@
       <c r="J29" s="4">
         <v>5</v>
       </c>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
+      <c r="K29" s="4">
+        <v>5</v>
+      </c>
+      <c r="L29" s="4">
+        <v>5</v>
+      </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -1539,7 +1556,7 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
     </row>
-    <row r="30" spans="1:21" ht="13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1549,12 +1566,6 @@
       <c r="C30" s="5">
         <v>5</v>
       </c>
-      <c r="D30" s="4">
-        <v>5</v>
-      </c>
-      <c r="E30" s="4">
-        <v>5</v>
-      </c>
       <c r="F30" s="4">
         <v>5</v>
       </c>
@@ -1564,12 +1575,16 @@
       <c r="H30" s="4">
         <v>5</v>
       </c>
-      <c r="I30" s="2"/>
+      <c r="I30" s="4">
+        <v>5</v>
+      </c>
       <c r="J30" s="4">
         <v>5</v>
       </c>
       <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
+      <c r="L30" s="4">
+        <v>5</v>
+      </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -1580,9 +1595,7 @@
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+    <row r="31" spans="1:21" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>

--- a/2ИСИП-321/2ИСИП-321_Сети.xlsx
+++ b/2ИСИП-321/2ИСИП-321_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1981F5ED-D7E0-452E-89C9-20B3477785CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9D6BC6-7E1A-4522-AB38-611185EA67BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,7 +164,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,12 +174,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -226,7 +220,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -537,7 +530,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="E23" activeCellId="5" sqref="E10 E14 E15 E20 E22 E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -806,7 +799,7 @@
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="2">
+      <c r="N9" s="4">
         <v>5</v>
       </c>
       <c r="O9" s="2"/>
@@ -827,10 +820,10 @@
       <c r="C10" s="5">
         <v>5</v>
       </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="5">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5">
         <v>5</v>
       </c>
       <c r="F10" s="4">
@@ -849,11 +842,11 @@
       <c r="K10" s="4">
         <v>5</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="4">
         <v>5</v>
       </c>
       <c r="M10" s="2"/>
-      <c r="N10" s="2">
+      <c r="N10" s="4">
         <v>5</v>
       </c>
       <c r="O10" s="2"/>
@@ -894,7 +887,7 @@
         <v>5</v>
       </c>
       <c r="M11" s="2"/>
-      <c r="N11" s="2">
+      <c r="N11" s="4">
         <v>5</v>
       </c>
       <c r="O11" s="2"/>
@@ -979,31 +972,31 @@
       <c r="C14" s="5">
         <v>5</v>
       </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="5">
+        <v>5</v>
+      </c>
+      <c r="E14" s="5">
         <v>5</v>
       </c>
       <c r="F14" s="4">
         <v>5</v>
       </c>
-      <c r="G14" s="2">
-        <v>5</v>
-      </c>
-      <c r="H14" s="2">
-        <v>5</v>
-      </c>
-      <c r="I14" s="2">
-        <v>5</v>
-      </c>
-      <c r="J14" s="2">
-        <v>5</v>
-      </c>
-      <c r="K14" s="2">
-        <v>5</v>
-      </c>
-      <c r="L14" s="2">
+      <c r="G14" s="4">
+        <v>5</v>
+      </c>
+      <c r="H14" s="4">
+        <v>5</v>
+      </c>
+      <c r="I14" s="4">
+        <v>5</v>
+      </c>
+      <c r="J14" s="4">
+        <v>5</v>
+      </c>
+      <c r="K14" s="4">
+        <v>5</v>
+      </c>
+      <c r="L14" s="4">
         <v>5</v>
       </c>
       <c r="M14" s="2"/>
@@ -1026,10 +1019,10 @@
       <c r="C15" s="5">
         <v>5</v>
       </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="5">
+        <v>5</v>
+      </c>
+      <c r="E15" s="5">
         <v>5</v>
       </c>
       <c r="F15" s="4">
@@ -1198,10 +1191,10 @@
       <c r="C20" s="5">
         <v>5</v>
       </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="5">
+        <v>5</v>
+      </c>
+      <c r="E20" s="5">
         <v>5</v>
       </c>
       <c r="F20" s="4">
@@ -1263,7 +1256,7 @@
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="2">
+      <c r="N21" s="4">
         <v>5</v>
       </c>
       <c r="O21" s="2"/>
@@ -1284,10 +1277,10 @@
       <c r="C22" s="5">
         <v>5</v>
       </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-      <c r="E22">
+      <c r="D22" s="5">
+        <v>5</v>
+      </c>
+      <c r="E22" s="5">
         <v>5</v>
       </c>
       <c r="F22" s="4">
@@ -1310,7 +1303,7 @@
         <v>5</v>
       </c>
       <c r="M22" s="2"/>
-      <c r="N22" s="2">
+      <c r="N22" s="4">
         <v>5</v>
       </c>
       <c r="O22" s="2"/>
@@ -1328,32 +1321,32 @@
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="6">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23">
-        <v>5</v>
-      </c>
-      <c r="F23" s="2">
+      <c r="C23" s="5">
+        <v>5</v>
+      </c>
+      <c r="D23" s="5">
+        <v>5</v>
+      </c>
+      <c r="E23" s="5">
+        <v>5</v>
+      </c>
+      <c r="F23" s="4">
         <v>5</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="2">
-        <v>5</v>
-      </c>
-      <c r="K23" s="2">
-        <v>5</v>
-      </c>
-      <c r="L23" s="2">
+      <c r="J23" s="4">
+        <v>5</v>
+      </c>
+      <c r="K23" s="4">
+        <v>5</v>
+      </c>
+      <c r="L23" s="4">
         <v>5</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" s="2">
+      <c r="N23" s="4">
         <v>5</v>
       </c>
       <c r="O23" s="2"/>
@@ -1408,7 +1401,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="2">
+      <c r="N25" s="4">
         <v>5</v>
       </c>
       <c r="O25" s="2"/>
@@ -1444,12 +1437,12 @@
       <c r="J26" s="4">
         <v>5</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="4">
         <v>5</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="2">
+      <c r="N26" s="4">
         <v>5</v>
       </c>
       <c r="O26" s="2">
@@ -1504,7 +1497,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-      <c r="N28" s="2">
+      <c r="N28" s="4">
         <v>5</v>
       </c>
       <c r="O28" s="2"/>

--- a/2ИСИП-321/2ИСИП-321_Сети.xlsx
+++ b/2ИСИП-321/2ИСИП-321_Сети.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v2_Git0\2ИСИП-321\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9D6BC6-7E1A-4522-AB38-611185EA67BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF71392-C1AB-446A-956E-88645AE7FD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,10 +527,10 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E23" activeCellId="5" sqref="E10 E14 E15 E20 E22 E23"/>
+      <selection pane="bottomRight" activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -621,14 +621,28 @@
       <c r="F4" s="4">
         <v>5</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="G4" s="2">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>5</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5</v>
+      </c>
+      <c r="K4" s="2">
+        <v>5</v>
+      </c>
+      <c r="L4" s="2">
+        <v>5</v>
+      </c>
       <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="N4" s="2">
+        <v>5</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -679,9 +693,15 @@
       <c r="F6" s="4">
         <v>5</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
       <c r="J6" s="4">
         <v>5</v>
       </c>
@@ -802,7 +822,9 @@
       <c r="N9" s="4">
         <v>5</v>
       </c>
-      <c r="O9" s="2"/>
+      <c r="O9" s="2">
+        <v>5</v>
+      </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -849,7 +871,9 @@
       <c r="N10" s="4">
         <v>5</v>
       </c>
-      <c r="O10" s="2"/>
+      <c r="O10" s="2">
+        <v>5</v>
+      </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -943,12 +967,16 @@
       <c r="G13" s="4">
         <v>5</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <v>5</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="4">
         <v>5</v>
       </c>
-      <c r="K13" s="2"/>
+      <c r="K13" s="2">
+        <v>5</v>
+      </c>
       <c r="L13" s="4">
         <v>5</v>
       </c>
@@ -1028,8 +1056,12 @@
       <c r="F15" s="4">
         <v>5</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="G15" s="2">
+        <v>5</v>
+      </c>
+      <c r="H15" s="2">
+        <v>5</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="4">
         <v>5</v>
@@ -1394,9 +1426,13 @@
       <c r="F25" s="4">
         <v>5</v>
       </c>
-      <c r="G25" s="2"/>
+      <c r="G25" s="2">
+        <v>5</v>
+      </c>
       <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="I25" s="2">
+        <v>5</v>
+      </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -1489,12 +1525,16 @@
       <c r="C28" s="5">
         <v>5</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2">
+        <v>5</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="K28" s="2">
+        <v>5</v>
+      </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="4">

--- a/2ИСИП-321/2ИСИП-321_Сети.xlsx
+++ b/2ИСИП-321/2ИСИП-321_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF71392-C1AB-446A-956E-88645AE7FD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302ED483-F433-48C5-A58F-3D4EDB9CDFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Аушев Ибрагим</t>
   </si>
@@ -140,6 +140,15 @@
   </si>
   <si>
     <t>Т_3</t>
+  </si>
+  <si>
+    <t>Л_11</t>
+  </si>
+  <si>
+    <t>Л_12</t>
+  </si>
+  <si>
+    <t>Л_13</t>
   </si>
 </sst>
 </file>
@@ -164,7 +173,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +183,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -205,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -220,6 +235,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -527,10 +546,10 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O22" sqref="O22"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -583,9 +602,15 @@
       <c r="O2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -618,16 +643,22 @@
       <c r="C4" s="5">
         <v>5</v>
       </c>
+      <c r="D4" s="6">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6">
+        <v>5</v>
+      </c>
       <c r="F4" s="4">
         <v>5</v>
       </c>
-      <c r="G4" s="2">
-        <v>5</v>
-      </c>
-      <c r="H4" s="2">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="G4" s="7">
+        <v>5</v>
+      </c>
+      <c r="H4" s="7">
+        <v>5</v>
+      </c>
+      <c r="I4" s="7">
         <v>5</v>
       </c>
       <c r="J4" s="2">
@@ -639,12 +670,18 @@
       <c r="L4" s="2">
         <v>5</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" s="2">
+        <v>5</v>
+      </c>
       <c r="N4" s="2">
         <v>5</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="O4" s="2">
+        <v>5</v>
+      </c>
+      <c r="P4" s="2">
+        <v>5</v>
+      </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -661,12 +698,14 @@
       <c r="C5" s="5">
         <v>5</v>
       </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="4">
         <v>5</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -690,16 +729,22 @@
       <c r="C6" s="5">
         <v>5</v>
       </c>
+      <c r="D6" s="6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6">
+        <v>5</v>
+      </c>
       <c r="F6" s="4">
         <v>5</v>
       </c>
-      <c r="G6" s="2">
-        <v>5</v>
-      </c>
-      <c r="H6" s="2">
-        <v>5</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="G6" s="7">
+        <v>5</v>
+      </c>
+      <c r="H6" s="7">
+        <v>5</v>
+      </c>
+      <c r="I6" s="7">
         <v>5</v>
       </c>
       <c r="J6" s="4">
@@ -731,12 +776,24 @@
       <c r="C7" s="5">
         <v>5</v>
       </c>
+      <c r="D7" s="6">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6">
+        <v>5</v>
+      </c>
       <c r="F7" s="4">
         <v>5</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="G7" s="7">
+        <v>5</v>
+      </c>
+      <c r="H7" s="7">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7">
+        <v>5</v>
+      </c>
       <c r="J7" s="4">
         <v>5</v>
       </c>
@@ -745,10 +802,18 @@
         <v>5</v>
       </c>
       <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="N7" s="2">
+        <v>5</v>
+      </c>
+      <c r="O7" s="2">
+        <v>5</v>
+      </c>
+      <c r="P7" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>5</v>
+      </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -764,6 +829,12 @@
       <c r="C8" s="5">
         <v>5</v>
       </c>
+      <c r="D8" s="6">
+        <v>5</v>
+      </c>
+      <c r="E8" s="6">
+        <v>5</v>
+      </c>
       <c r="F8" s="4">
         <v>5</v>
       </c>
@@ -779,12 +850,22 @@
       <c r="J8" s="4">
         <v>5</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="K8" s="2">
+        <v>5</v>
+      </c>
+      <c r="L8" s="2">
+        <v>5</v>
+      </c>
       <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
+      <c r="N8" s="2">
+        <v>5</v>
+      </c>
+      <c r="O8" s="2">
+        <v>5</v>
+      </c>
+      <c r="P8" s="2">
+        <v>5</v>
+      </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -801,13 +882,19 @@
       <c r="C9" s="5">
         <v>5</v>
       </c>
+      <c r="D9" s="6">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6">
+        <v>5</v>
+      </c>
       <c r="F9" s="4">
         <v>5</v>
       </c>
       <c r="G9" s="4">
         <v>5</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="4">
         <v>5</v>
       </c>
@@ -817,7 +904,9 @@
       <c r="K9" s="4">
         <v>5</v>
       </c>
-      <c r="L9" s="2"/>
+      <c r="L9" s="2">
+        <v>5</v>
+      </c>
       <c r="M9" s="2"/>
       <c r="N9" s="4">
         <v>5</v>
@@ -826,8 +915,12 @@
         <v>5</v>
       </c>
       <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
+      <c r="Q9" s="2">
+        <v>5</v>
+      </c>
+      <c r="R9" s="2">
+        <v>5</v>
+      </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
@@ -857,7 +950,7 @@
       <c r="H10" s="4">
         <v>5</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="4">
         <v>5</v>
       </c>
@@ -874,7 +967,9 @@
       <c r="O10" s="2">
         <v>5</v>
       </c>
-      <c r="P10" s="2"/>
+      <c r="P10" s="2">
+        <v>5</v>
+      </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -891,6 +986,12 @@
       <c r="C11" s="5">
         <v>5</v>
       </c>
+      <c r="D11" s="6">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6">
+        <v>5</v>
+      </c>
       <c r="F11" s="4">
         <v>5</v>
       </c>
@@ -914,10 +1015,16 @@
       <c r="N11" s="4">
         <v>5</v>
       </c>
-      <c r="O11" s="2"/>
+      <c r="O11" s="2">
+        <v>5</v>
+      </c>
       <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+      <c r="Q11" s="2">
+        <v>5</v>
+      </c>
+      <c r="R11" s="2">
+        <v>5</v>
+      </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
@@ -932,21 +1039,41 @@
       <c r="C12" s="5">
         <v>5</v>
       </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="4">
         <v>5</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="G12" s="7">
+        <v>5</v>
+      </c>
+      <c r="H12" s="7">
+        <v>5</v>
+      </c>
+      <c r="I12" s="7">
+        <v>5</v>
+      </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="K12" s="2">
+        <v>5</v>
+      </c>
+      <c r="L12" s="2">
+        <v>5</v>
+      </c>
+      <c r="M12" s="2">
+        <v>5</v>
+      </c>
+      <c r="N12" s="2">
+        <v>5</v>
+      </c>
+      <c r="O12" s="2">
+        <v>5</v>
+      </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+      <c r="R12" s="2">
+        <v>5</v>
+      </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
@@ -961,16 +1088,20 @@
       <c r="C13" s="5">
         <v>5</v>
       </c>
+      <c r="D13" s="6">
+        <v>5</v>
+      </c>
+      <c r="E13" s="6"/>
       <c r="F13" s="4">
         <v>5</v>
       </c>
       <c r="G13" s="4">
         <v>5</v>
       </c>
-      <c r="H13" s="2">
-        <v>5</v>
-      </c>
-      <c r="I13" s="2"/>
+      <c r="H13" s="7">
+        <v>5</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="4">
         <v>5</v>
       </c>
@@ -981,7 +1112,9 @@
         <v>5</v>
       </c>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="N13" s="2">
+        <v>5</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -1056,13 +1189,15 @@
       <c r="F15" s="4">
         <v>5</v>
       </c>
-      <c r="G15" s="2">
-        <v>5</v>
-      </c>
-      <c r="H15" s="2">
-        <v>5</v>
-      </c>
-      <c r="I15" s="2"/>
+      <c r="G15" s="7">
+        <v>5</v>
+      </c>
+      <c r="H15" s="7">
+        <v>5</v>
+      </c>
+      <c r="I15" s="7">
+        <v>5</v>
+      </c>
       <c r="J15" s="4">
         <v>5</v>
       </c>
@@ -1087,6 +1222,9 @@
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="4">
         <v>5</v>
       </c>
@@ -1096,17 +1234,33 @@
       <c r="H16" s="4">
         <v>5</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="7">
+        <v>5</v>
+      </c>
       <c r="J16" s="4">
         <v>5</v>
       </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
+      <c r="K16" s="2">
+        <v>5</v>
+      </c>
+      <c r="L16" s="2">
+        <v>5</v>
+      </c>
+      <c r="M16" s="2">
+        <v>5</v>
+      </c>
+      <c r="N16" s="2">
+        <v>5</v>
+      </c>
+      <c r="O16" s="2">
+        <v>5</v>
+      </c>
+      <c r="P16" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>5</v>
+      </c>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
@@ -1122,12 +1276,22 @@
       <c r="C17" s="5">
         <v>5</v>
       </c>
+      <c r="D17" s="6">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6">
+        <v>5</v>
+      </c>
       <c r="F17" s="4">
         <v>5</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="G17" s="7">
+        <v>5</v>
+      </c>
+      <c r="H17" s="7">
+        <v>5</v>
+      </c>
+      <c r="I17" s="7"/>
       <c r="J17" s="4">
         <v>5</v>
       </c>
@@ -1137,9 +1301,15 @@
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
+      <c r="O17" s="2">
+        <v>5</v>
+      </c>
+      <c r="P17" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>5</v>
+      </c>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
@@ -1155,19 +1325,37 @@
       <c r="C18" s="5">
         <v>5</v>
       </c>
+      <c r="D18" s="6">
+        <v>5</v>
+      </c>
+      <c r="E18" s="6">
+        <v>5</v>
+      </c>
       <c r="F18" s="4">
         <v>5</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="2">
+        <v>5</v>
+      </c>
+      <c r="K18" s="2">
+        <v>5</v>
+      </c>
+      <c r="L18" s="2">
+        <v>5</v>
+      </c>
       <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
+      <c r="N18" s="2">
+        <v>5</v>
+      </c>
+      <c r="O18" s="2">
+        <v>5</v>
+      </c>
+      <c r="P18" s="2">
+        <v>5</v>
+      </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
@@ -1184,6 +1372,12 @@
       <c r="C19" s="5">
         <v>5</v>
       </c>
+      <c r="D19" s="6">
+        <v>5</v>
+      </c>
+      <c r="E19" s="6">
+        <v>5</v>
+      </c>
       <c r="F19" s="4">
         <v>5</v>
       </c>
@@ -1204,8 +1398,12 @@
         <v>5</v>
       </c>
       <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="N19" s="2">
+        <v>5</v>
+      </c>
+      <c r="O19" s="2">
+        <v>5</v>
+      </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
@@ -1252,7 +1450,9 @@
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="O20" s="2">
+        <v>5</v>
+      </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
@@ -1270,6 +1470,12 @@
       <c r="C21" s="5">
         <v>5</v>
       </c>
+      <c r="D21" s="6">
+        <v>5</v>
+      </c>
+      <c r="E21" s="6">
+        <v>5</v>
+      </c>
       <c r="F21" s="4">
         <v>5</v>
       </c>
@@ -1279,7 +1485,7 @@
       <c r="H21" s="4">
         <v>5</v>
       </c>
-      <c r="I21" s="2"/>
+      <c r="I21" s="7"/>
       <c r="J21" s="4">
         <v>5</v>
       </c>
@@ -1291,9 +1497,15 @@
       <c r="N21" s="4">
         <v>5</v>
       </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
+      <c r="O21" s="2">
+        <v>5</v>
+      </c>
+      <c r="P21" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>5</v>
+      </c>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
@@ -1324,7 +1536,7 @@
       <c r="H22" s="4">
         <v>5</v>
       </c>
-      <c r="I22" s="2"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="4">
         <v>5</v>
       </c>
@@ -1338,9 +1550,15 @@
       <c r="N22" s="4">
         <v>5</v>
       </c>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
+      <c r="O22" s="2">
+        <v>5</v>
+      </c>
+      <c r="P22" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>5</v>
+      </c>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
@@ -1365,9 +1583,15 @@
       <c r="F23" s="4">
         <v>5</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="G23" s="7">
+        <v>5</v>
+      </c>
+      <c r="H23" s="7">
+        <v>5</v>
+      </c>
+      <c r="I23" s="7">
+        <v>5</v>
+      </c>
       <c r="J23" s="4">
         <v>5</v>
       </c>
@@ -1396,10 +1620,13 @@
       <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -1423,26 +1650,36 @@
       <c r="C25" s="5">
         <v>5</v>
       </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="4">
         <v>5</v>
       </c>
-      <c r="G25" s="2">
-        <v>5</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2">
-        <v>5</v>
-      </c>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="G25" s="7">
+        <v>5</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7">
+        <v>5</v>
+      </c>
+      <c r="J25" s="2">
+        <v>5</v>
+      </c>
+      <c r="K25" s="2">
+        <v>5</v>
+      </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="4">
         <v>5</v>
       </c>
-      <c r="O25" s="2"/>
+      <c r="O25" s="2">
+        <v>5</v>
+      </c>
       <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
+      <c r="Q25" s="2">
+        <v>5</v>
+      </c>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
@@ -1458,6 +1695,12 @@
       <c r="C26" s="5">
         <v>5</v>
       </c>
+      <c r="D26" s="6">
+        <v>5</v>
+      </c>
+      <c r="E26" s="6">
+        <v>5</v>
+      </c>
       <c r="F26" s="4">
         <v>5</v>
       </c>
@@ -1485,7 +1728,9 @@
         <v>5</v>
       </c>
       <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
+      <c r="Q26" s="2">
+        <v>5</v>
+      </c>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
@@ -1498,10 +1743,13 @@
       <c r="B27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -1525,13 +1773,23 @@
       <c r="C28" s="5">
         <v>5</v>
       </c>
-      <c r="F28" s="2">
-        <v>5</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="D28" s="6">
+        <v>5</v>
+      </c>
+      <c r="E28" s="6">
+        <v>5</v>
+      </c>
+      <c r="F28" s="7">
+        <v>5</v>
+      </c>
+      <c r="G28" s="7">
+        <v>5</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="2">
+        <v>5</v>
+      </c>
       <c r="K28" s="2">
         <v>5</v>
       </c>
@@ -1540,9 +1798,15 @@
       <c r="N28" s="4">
         <v>5</v>
       </c>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
+      <c r="O28" s="2">
+        <v>5</v>
+      </c>
+      <c r="P28" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>5</v>
+      </c>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
@@ -1558,6 +1822,8 @@
       <c r="C29" s="5">
         <v>5</v>
       </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
       <c r="F29" s="4">
         <v>5</v>
       </c>
@@ -1580,8 +1846,12 @@
         <v>5</v>
       </c>
       <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="N29" s="2">
+        <v>5</v>
+      </c>
+      <c r="O29" s="2">
+        <v>5</v>
+      </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
@@ -1599,6 +1869,10 @@
       <c r="C30" s="5">
         <v>5</v>
       </c>
+      <c r="D30" s="6">
+        <v>5</v>
+      </c>
+      <c r="E30" s="6"/>
       <c r="F30" s="4">
         <v>5</v>
       </c>
@@ -1619,7 +1893,9 @@
         <v>5</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="N30" s="2">
+        <v>5</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>

--- a/2ИСИП-321/2ИСИП-321_Сети.xlsx
+++ b/2ИСИП-321/2ИСИП-321_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302ED483-F433-48C5-A58F-3D4EDB9CDFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8650171C-3F6C-4893-9055-7A2B30FB7FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Аушев Ибрагим</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Л_13</t>
+  </si>
+  <si>
+    <t>Т_4</t>
   </si>
 </sst>
 </file>
@@ -546,10 +549,10 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -572,51 +575,52 @@
       <c r="E2" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
     <row r="3" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -649,10 +653,7 @@
       <c r="E4" s="6">
         <v>5</v>
       </c>
-      <c r="F4" s="4">
-        <v>5</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="G4" s="4">
         <v>5</v>
       </c>
       <c r="H4" s="7">
@@ -661,7 +662,7 @@
       <c r="I4" s="7">
         <v>5</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="7">
         <v>5</v>
       </c>
       <c r="K4" s="2">
@@ -682,7 +683,9 @@
       <c r="P4" s="2">
         <v>5</v>
       </c>
-      <c r="Q4" s="2"/>
+      <c r="Q4" s="2">
+        <v>5</v>
+      </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
@@ -700,13 +703,12 @@
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="4">
-        <v>5</v>
-      </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="4">
+        <v>5</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="7"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -735,10 +737,10 @@
       <c r="E6" s="6">
         <v>5</v>
       </c>
-      <c r="F6" s="4">
-        <v>5</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4">
         <v>5</v>
       </c>
       <c r="H6" s="7">
@@ -747,7 +749,7 @@
       <c r="I6" s="7">
         <v>5</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="7">
         <v>5</v>
       </c>
       <c r="K6" s="4">
@@ -756,7 +758,9 @@
       <c r="L6" s="4">
         <v>5</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" s="4">
+        <v>5</v>
+      </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -782,10 +786,10 @@
       <c r="E7" s="6">
         <v>5</v>
       </c>
-      <c r="F7" s="4">
-        <v>5</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4">
         <v>5</v>
       </c>
       <c r="H7" s="7">
@@ -794,17 +798,17 @@
       <c r="I7" s="7">
         <v>5</v>
       </c>
-      <c r="J7" s="4">
-        <v>5</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="4">
-        <v>5</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2">
-        <v>5</v>
-      </c>
+      <c r="J7" s="7">
+        <v>5</v>
+      </c>
+      <c r="K7" s="4">
+        <v>5</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="4">
+        <v>5</v>
+      </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="2">
         <v>5</v>
       </c>
@@ -814,7 +818,9 @@
       <c r="Q7" s="2">
         <v>5</v>
       </c>
-      <c r="R7" s="2"/>
+      <c r="R7" s="2">
+        <v>5</v>
+      </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
@@ -835,7 +841,7 @@
       <c r="E8" s="6">
         <v>5</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8">
         <v>5</v>
       </c>
       <c r="G8" s="4">
@@ -850,23 +856,25 @@
       <c r="J8" s="4">
         <v>5</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="4">
         <v>5</v>
       </c>
       <c r="L8" s="2">
         <v>5</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2">
-        <v>5</v>
-      </c>
+      <c r="M8" s="2">
+        <v>5</v>
+      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2">
         <v>5</v>
       </c>
       <c r="P8" s="2">
         <v>5</v>
       </c>
-      <c r="Q8" s="2"/>
+      <c r="Q8" s="2">
+        <v>5</v>
+      </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -888,40 +896,42 @@
       <c r="E9" s="6">
         <v>5</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9">
         <v>5</v>
       </c>
       <c r="G9" s="4">
         <v>5</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="4">
-        <v>5</v>
-      </c>
+      <c r="H9" s="4">
+        <v>5</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="4">
         <v>5</v>
       </c>
       <c r="K9" s="4">
         <v>5</v>
       </c>
-      <c r="L9" s="2">
-        <v>5</v>
-      </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="4">
-        <v>5</v>
-      </c>
-      <c r="O9" s="2">
-        <v>5</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2">
-        <v>5</v>
-      </c>
+      <c r="L9" s="4">
+        <v>5</v>
+      </c>
+      <c r="M9" s="2">
+        <v>5</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="4">
+        <v>5</v>
+      </c>
+      <c r="P9" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" s="2">
         <v>5</v>
       </c>
-      <c r="S9" s="2"/>
+      <c r="S9" s="2">
+        <v>5</v>
+      </c>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
@@ -941,7 +951,7 @@
       <c r="E10" s="5">
         <v>5</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="6">
         <v>5</v>
       </c>
       <c r="G10" s="4">
@@ -950,27 +960,29 @@
       <c r="H10" s="4">
         <v>5</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="4">
-        <v>5</v>
-      </c>
+      <c r="I10" s="4">
+        <v>5</v>
+      </c>
+      <c r="J10" s="7"/>
       <c r="K10" s="4">
         <v>5</v>
       </c>
       <c r="L10" s="4">
         <v>5</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="4">
-        <v>5</v>
-      </c>
-      <c r="O10" s="2">
+      <c r="M10" s="4">
+        <v>5</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="4">
         <v>5</v>
       </c>
       <c r="P10" s="2">
         <v>5</v>
       </c>
-      <c r="Q10" s="2"/>
+      <c r="Q10" s="2">
+        <v>5</v>
+      </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
@@ -992,7 +1004,7 @@
       <c r="E11" s="6">
         <v>5</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="6">
         <v>5</v>
       </c>
       <c r="G11" s="4">
@@ -1007,25 +1019,27 @@
       <c r="J11" s="4">
         <v>5</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="4">
-        <v>5</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="4">
-        <v>5</v>
-      </c>
-      <c r="O11" s="2">
-        <v>5</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2">
-        <v>5</v>
-      </c>
+      <c r="K11" s="4">
+        <v>5</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="4">
+        <v>5</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="4">
+        <v>5</v>
+      </c>
+      <c r="P11" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" s="2">
         <v>5</v>
       </c>
-      <c r="S11" s="2"/>
+      <c r="S11" s="2">
+        <v>5</v>
+      </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
@@ -1041,10 +1055,8 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="4">
-        <v>5</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="F12" s="6"/>
+      <c r="G12" s="4">
         <v>5</v>
       </c>
       <c r="H12" s="7">
@@ -1053,10 +1065,10 @@
       <c r="I12" s="7">
         <v>5</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2">
-        <v>5</v>
-      </c>
+      <c r="J12" s="7">
+        <v>5</v>
+      </c>
+      <c r="K12" s="2"/>
       <c r="L12" s="2">
         <v>5</v>
       </c>
@@ -1069,12 +1081,14 @@
       <c r="O12" s="2">
         <v>5</v>
       </c>
-      <c r="P12" s="2"/>
+      <c r="P12" s="2">
+        <v>5</v>
+      </c>
       <c r="Q12" s="2"/>
-      <c r="R12" s="2">
-        <v>5</v>
-      </c>
-      <c r="S12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2">
+        <v>5</v>
+      </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
@@ -1092,30 +1106,32 @@
         <v>5</v>
       </c>
       <c r="E13" s="6"/>
-      <c r="F13" s="4">
+      <c r="F13" s="6">
         <v>5</v>
       </c>
       <c r="G13" s="4">
         <v>5</v>
       </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="4">
-        <v>5</v>
-      </c>
-      <c r="K13" s="2">
-        <v>5</v>
-      </c>
-      <c r="L13" s="4">
-        <v>5</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2">
-        <v>5</v>
-      </c>
-      <c r="O13" s="2"/>
+      <c r="H13" s="4">
+        <v>5</v>
+      </c>
+      <c r="I13" s="7">
+        <v>5</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="4">
+        <v>5</v>
+      </c>
+      <c r="L13" s="2">
+        <v>5</v>
+      </c>
+      <c r="M13" s="4">
+        <v>5</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2">
+        <v>5</v>
+      </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -1139,9 +1155,7 @@
       <c r="E14" s="5">
         <v>5</v>
       </c>
-      <c r="F14" s="4">
-        <v>5</v>
-      </c>
+      <c r="F14" s="6"/>
       <c r="G14" s="4">
         <v>5</v>
       </c>
@@ -1160,7 +1174,9 @@
       <c r="L14" s="4">
         <v>5</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" s="4">
+        <v>5</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -1186,10 +1202,10 @@
       <c r="E15" s="5">
         <v>5</v>
       </c>
-      <c r="F15" s="4">
-        <v>5</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="F15" s="6">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4">
         <v>5</v>
       </c>
       <c r="H15" s="7">
@@ -1198,14 +1214,16 @@
       <c r="I15" s="7">
         <v>5</v>
       </c>
-      <c r="J15" s="4">
-        <v>5</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="4">
-        <v>5</v>
-      </c>
-      <c r="M15" s="2"/>
+      <c r="J15" s="7">
+        <v>5</v>
+      </c>
+      <c r="K15" s="4">
+        <v>5</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="4">
+        <v>5</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -1223,9 +1241,13 @@
         <v>12</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="4">
+      <c r="D16" s="6">
+        <v>5</v>
+      </c>
+      <c r="E16" s="6">
+        <v>5</v>
+      </c>
+      <c r="F16" s="6">
         <v>5</v>
       </c>
       <c r="G16" s="4">
@@ -1234,13 +1256,13 @@
       <c r="H16" s="4">
         <v>5</v>
       </c>
-      <c r="I16" s="7">
-        <v>5</v>
-      </c>
-      <c r="J16" s="4">
-        <v>5</v>
-      </c>
-      <c r="K16" s="2">
+      <c r="I16" s="4">
+        <v>5</v>
+      </c>
+      <c r="J16" s="7">
+        <v>5</v>
+      </c>
+      <c r="K16" s="4">
         <v>5</v>
       </c>
       <c r="L16" s="2">
@@ -1261,7 +1283,9 @@
       <c r="Q16" s="2">
         <v>5</v>
       </c>
-      <c r="R16" s="2"/>
+      <c r="R16" s="2">
+        <v>5</v>
+      </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
@@ -1282,35 +1306,37 @@
       <c r="E17" s="6">
         <v>5</v>
       </c>
-      <c r="F17" s="4">
-        <v>5</v>
-      </c>
-      <c r="G17" s="7">
+      <c r="F17" s="6">
+        <v>5</v>
+      </c>
+      <c r="G17" s="4">
         <v>5</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="4">
-        <v>5</v>
-      </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="4">
-        <v>5</v>
-      </c>
-      <c r="M17" s="2"/>
+      <c r="I17" s="7">
+        <v>5</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="4">
+        <v>5</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="4">
+        <v>5</v>
+      </c>
       <c r="N17" s="2"/>
-      <c r="O17" s="2">
-        <v>5</v>
-      </c>
+      <c r="O17" s="2"/>
       <c r="P17" s="2">
         <v>5</v>
       </c>
       <c r="Q17" s="2">
         <v>5</v>
       </c>
-      <c r="R17" s="2"/>
+      <c r="R17" s="2">
+        <v>5</v>
+      </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
@@ -1331,32 +1357,34 @@
       <c r="E18" s="6">
         <v>5</v>
       </c>
-      <c r="F18" s="4">
-        <v>5</v>
-      </c>
-      <c r="G18" s="7"/>
+      <c r="F18" s="6">
+        <v>5</v>
+      </c>
+      <c r="G18" s="4">
+        <v>5</v>
+      </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="2">
-        <v>5</v>
-      </c>
+      <c r="J18" s="7"/>
       <c r="K18" s="2">
         <v>5</v>
       </c>
       <c r="L18" s="2">
         <v>5</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2">
-        <v>5</v>
-      </c>
+      <c r="M18" s="2">
+        <v>5</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2">
         <v>5</v>
       </c>
       <c r="P18" s="2">
         <v>5</v>
       </c>
-      <c r="Q18" s="2"/>
+      <c r="Q18" s="2">
+        <v>5</v>
+      </c>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
@@ -1378,7 +1406,7 @@
       <c r="E19" s="6">
         <v>5</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="6">
         <v>5</v>
       </c>
       <c r="G19" s="4">
@@ -1393,18 +1421,20 @@
       <c r="J19" s="4">
         <v>5</v>
       </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="4">
-        <v>5</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2">
-        <v>5</v>
-      </c>
+      <c r="K19" s="4">
+        <v>5</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="4">
+        <v>5</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2">
         <v>5</v>
       </c>
-      <c r="P19" s="2"/>
+      <c r="P19" s="2">
+        <v>5</v>
+      </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
@@ -1427,7 +1457,7 @@
       <c r="E20" s="5">
         <v>5</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="6">
         <v>5</v>
       </c>
       <c r="G20" s="4">
@@ -1448,12 +1478,14 @@
       <c r="L20" s="4">
         <v>5</v>
       </c>
-      <c r="M20" s="2"/>
+      <c r="M20" s="4">
+        <v>5</v>
+      </c>
       <c r="N20" s="2"/>
-      <c r="O20" s="2">
-        <v>5</v>
-      </c>
-      <c r="P20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2">
+        <v>5</v>
+      </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
@@ -1476,7 +1508,7 @@
       <c r="E21" s="6">
         <v>5</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="6">
         <v>5</v>
       </c>
       <c r="G21" s="4">
@@ -1485,19 +1517,19 @@
       <c r="H21" s="4">
         <v>5</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="4">
-        <v>5</v>
-      </c>
+      <c r="I21" s="4">
+        <v>5</v>
+      </c>
+      <c r="J21" s="7"/>
       <c r="K21" s="4">
         <v>5</v>
       </c>
-      <c r="L21" s="2"/>
+      <c r="L21" s="4">
+        <v>5</v>
+      </c>
       <c r="M21" s="2"/>
-      <c r="N21" s="4">
-        <v>5</v>
-      </c>
-      <c r="O21" s="2">
+      <c r="N21" s="2"/>
+      <c r="O21" s="4">
         <v>5</v>
       </c>
       <c r="P21" s="2">
@@ -1506,7 +1538,9 @@
       <c r="Q21" s="2">
         <v>5</v>
       </c>
-      <c r="R21" s="2"/>
+      <c r="R21" s="2">
+        <v>5</v>
+      </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -1527,7 +1561,7 @@
       <c r="E22" s="5">
         <v>5</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="6">
         <v>5</v>
       </c>
       <c r="G22" s="4">
@@ -1536,21 +1570,21 @@
       <c r="H22" s="4">
         <v>5</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="4">
-        <v>5</v>
-      </c>
+      <c r="I22" s="4">
+        <v>5</v>
+      </c>
+      <c r="J22" s="7"/>
       <c r="K22" s="4">
         <v>5</v>
       </c>
       <c r="L22" s="4">
         <v>5</v>
       </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="4">
-        <v>5</v>
-      </c>
-      <c r="O22" s="2">
+      <c r="M22" s="4">
+        <v>5</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="4">
         <v>5</v>
       </c>
       <c r="P22" s="2">
@@ -1559,7 +1593,9 @@
       <c r="Q22" s="2">
         <v>5</v>
       </c>
-      <c r="R22" s="2"/>
+      <c r="R22" s="2">
+        <v>5</v>
+      </c>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -1580,10 +1616,10 @@
       <c r="E23" s="5">
         <v>5</v>
       </c>
-      <c r="F23" s="4">
-        <v>5</v>
-      </c>
-      <c r="G23" s="7">
+      <c r="F23" s="6">
+        <v>5</v>
+      </c>
+      <c r="G23" s="4">
         <v>5</v>
       </c>
       <c r="H23" s="7">
@@ -1592,7 +1628,7 @@
       <c r="I23" s="7">
         <v>5</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="7">
         <v>5</v>
       </c>
       <c r="K23" s="4">
@@ -1601,11 +1637,13 @@
       <c r="L23" s="4">
         <v>5</v>
       </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="4">
-        <v>5</v>
-      </c>
-      <c r="O23" s="2"/>
+      <c r="M23" s="4">
+        <v>5</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="4">
+        <v>5</v>
+      </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
@@ -1623,11 +1661,13 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="7"/>
+      <c r="F24" s="6">
+        <v>5</v>
+      </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="2"/>
+      <c r="J24" s="7"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -1652,35 +1692,37 @@
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="4">
-        <v>5</v>
-      </c>
-      <c r="G25" s="7">
-        <v>5</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7">
-        <v>5</v>
-      </c>
-      <c r="J25" s="2">
+      <c r="F25" s="6">
+        <v>5</v>
+      </c>
+      <c r="G25" s="4">
+        <v>5</v>
+      </c>
+      <c r="H25" s="7">
+        <v>5</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7">
         <v>5</v>
       </c>
       <c r="K25" s="2">
         <v>5</v>
       </c>
-      <c r="L25" s="2"/>
+      <c r="L25" s="2">
+        <v>5</v>
+      </c>
       <c r="M25" s="2"/>
-      <c r="N25" s="4">
-        <v>5</v>
-      </c>
-      <c r="O25" s="2">
-        <v>5</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2">
-        <v>5</v>
-      </c>
-      <c r="R25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="4">
+        <v>5</v>
+      </c>
+      <c r="P25" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2">
+        <v>5</v>
+      </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
@@ -1701,7 +1743,7 @@
       <c r="E26" s="6">
         <v>5</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="6">
         <v>5</v>
       </c>
       <c r="G26" s="4">
@@ -1719,19 +1761,21 @@
       <c r="K26" s="4">
         <v>5</v>
       </c>
-      <c r="L26" s="2"/>
+      <c r="L26" s="4">
+        <v>5</v>
+      </c>
       <c r="M26" s="2"/>
-      <c r="N26" s="4">
-        <v>5</v>
-      </c>
-      <c r="O26" s="2">
-        <v>5</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2">
-        <v>5</v>
-      </c>
-      <c r="R26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="4">
+        <v>5</v>
+      </c>
+      <c r="P26" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2">
+        <v>5</v>
+      </c>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
@@ -1746,11 +1790,11 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="2"/>
+      <c r="J27" s="7"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -1779,26 +1823,26 @@
       <c r="E28" s="6">
         <v>5</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <v>5</v>
       </c>
       <c r="G28" s="7">
         <v>5</v>
       </c>
-      <c r="H28" s="7"/>
+      <c r="H28" s="7">
+        <v>5</v>
+      </c>
       <c r="I28" s="7"/>
-      <c r="J28" s="2">
-        <v>5</v>
-      </c>
+      <c r="J28" s="7"/>
       <c r="K28" s="2">
         <v>5</v>
       </c>
-      <c r="L28" s="2"/>
+      <c r="L28" s="2">
+        <v>5</v>
+      </c>
       <c r="M28" s="2"/>
-      <c r="N28" s="4">
-        <v>5</v>
-      </c>
-      <c r="O28" s="2">
+      <c r="N28" s="2"/>
+      <c r="O28" s="4">
         <v>5</v>
       </c>
       <c r="P28" s="2">
@@ -1807,7 +1851,9 @@
       <c r="Q28" s="2">
         <v>5</v>
       </c>
-      <c r="R28" s="2"/>
+      <c r="R28" s="2">
+        <v>5</v>
+      </c>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
@@ -1824,7 +1870,7 @@
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="4">
+      <c r="F29" s="6">
         <v>5</v>
       </c>
       <c r="G29" s="4">
@@ -1845,14 +1891,16 @@
       <c r="L29" s="4">
         <v>5</v>
       </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2">
-        <v>5</v>
-      </c>
+      <c r="M29" s="4">
+        <v>5</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2">
         <v>5</v>
       </c>
-      <c r="P29" s="2"/>
+      <c r="P29" s="2">
+        <v>5</v>
+      </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
@@ -1873,7 +1921,7 @@
         <v>5</v>
       </c>
       <c r="E30" s="6"/>
-      <c r="F30" s="4">
+      <c r="F30" s="6">
         <v>5</v>
       </c>
       <c r="G30" s="4">
@@ -1888,15 +1936,17 @@
       <c r="J30" s="4">
         <v>5</v>
       </c>
-      <c r="K30" s="2"/>
-      <c r="L30" s="4">
-        <v>5</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2">
-        <v>5</v>
-      </c>
-      <c r="O30" s="2"/>
+      <c r="K30" s="4">
+        <v>5</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="4">
+        <v>5</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2">
+        <v>5</v>
+      </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
@@ -1905,7 +1955,6 @@
       <c r="U30" s="2"/>
     </row>
     <row r="31" spans="1:21" ht="13" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>

--- a/2ИСИП-321/2ИСИП-321_Сети.xlsx
+++ b/2ИСИП-321/2ИСИП-321_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8650171C-3F6C-4893-9055-7A2B30FB7FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6579F65F-FBB1-4576-8E68-3D22C1604D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,19 @@
     <sheet name="Akopov V. F." sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -552,7 +565,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -689,7 +702,10 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
+      <c r="U4" s="2">
+        <f>SUM(C4:S4)</f>
+        <v>70</v>
+      </c>
     </row>
     <row r="5" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -719,7 +735,10 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
+      <c r="U5" s="2">
+        <f t="shared" ref="U5:U30" si="0">SUM(C5:S5)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -768,7 +787,10 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
+      <c r="U6" s="2">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -823,7 +845,10 @@
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
+      <c r="U7" s="2">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
     </row>
     <row r="8" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -878,7 +903,10 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
+      <c r="U8" s="2">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
     </row>
     <row r="9" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -933,7 +961,10 @@
         <v>5</v>
       </c>
       <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
+      <c r="U9" s="2">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
     </row>
     <row r="10" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -986,7 +1017,10 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
+      <c r="U10" s="2">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
     </row>
     <row r="11" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -1041,7 +1075,10 @@
         <v>5</v>
       </c>
       <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
+      <c r="U11" s="2">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
     </row>
     <row r="12" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -1090,7 +1127,10 @@
         <v>5</v>
       </c>
       <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
+      <c r="U12" s="2">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -1137,7 +1177,10 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
+      <c r="U13" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -1184,7 +1227,10 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
+      <c r="U14" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -1231,7 +1277,10 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
+      <c r="U15" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="16" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -1288,7 +1337,10 @@
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
+      <c r="U16" s="2">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="17" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -1339,7 +1391,10 @@
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
+      <c r="U17" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="18" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -1388,7 +1443,10 @@
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
+      <c r="U18" s="2">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="19" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -1439,7 +1497,10 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
+      <c r="U19" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="20" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -1490,7 +1551,10 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
+      <c r="U20" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="21" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -1543,7 +1607,10 @@
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
+      <c r="U21" s="2">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
     </row>
     <row r="22" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -1598,7 +1665,10 @@
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
+      <c r="U22" s="2">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
     </row>
     <row r="23" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -1649,7 +1719,10 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
+      <c r="U23" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="24" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -1678,7 +1751,10 @@
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
+      <c r="U24" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -1725,7 +1801,10 @@
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
+      <c r="U25" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="26" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -1778,7 +1857,10 @@
       </c>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
+      <c r="U26" s="2">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
     </row>
     <row r="27" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
@@ -1805,7 +1887,10 @@
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
+      <c r="U27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -1856,7 +1941,10 @@
       </c>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
+      <c r="U28" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="29" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -1905,7 +1993,10 @@
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
+      <c r="U29" s="2">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="30" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -1952,7 +2043,10 @@
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
+      <c r="U30" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="31" spans="1:21" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G31" s="3"/>
@@ -1973,6 +2067,18 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <conditionalFormatting sqref="U4:U30">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2ИСИП-321/2ИСИП-321_Сети.xlsx
+++ b/2ИСИП-321/2ИСИП-321_Сети.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\_2ИСИП-321\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58E89D2-23DD-49C3-8F5A-29FE5746BB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0C4DA4-7DB9-4BE8-A7C3-569316EC8C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -584,10 +584,10 @@
   <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X10" sqref="X10"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>

--- a/2ИСИП-321/2ИСИП-321_Сети.xlsx
+++ b/2ИСИП-321/2ИСИП-321_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0C4DA4-7DB9-4BE8-A7C3-569316EC8C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C9F80F-59E3-4B56-8A9D-E1B9B4265954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -584,10 +584,10 @@
   <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1135,7 +1135,9 @@
       <c r="K11" s="4">
         <v>5</v>
       </c>
-      <c r="L11" s="2"/>
+      <c r="L11" s="2">
+        <v>5</v>
+      </c>
       <c r="M11" s="4">
         <v>5</v>
       </c>
@@ -1156,7 +1158,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="W11" t="s">
         <v>44</v>
@@ -1381,7 +1383,9 @@
       <c r="K15" s="4">
         <v>5</v>
       </c>
-      <c r="L15" s="2"/>
+      <c r="L15" s="2">
+        <v>5</v>
+      </c>
       <c r="M15" s="4">
         <v>5</v>
       </c>
@@ -1400,7 +1404,7 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="W15" t="s">
         <v>44</v>
@@ -1512,7 +1516,9 @@
         <v>5</v>
       </c>
       <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="O17" s="2">
+        <v>5</v>
+      </c>
       <c r="P17" s="2">
         <v>5</v>
       </c>
@@ -1526,7 +1532,7 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="X17">
         <v>10</v>

--- a/2ИСИП-321/2ИСИП-321_Сети.xlsx
+++ b/2ИСИП-321/2ИСИП-321_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C9F80F-59E3-4B56-8A9D-E1B9B4265954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DFD367-ABF2-41FE-B573-F76D3BEEED09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -584,10 +584,10 @@
   <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
+      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -961,12 +961,14 @@
       <c r="Q8" s="2">
         <v>5</v>
       </c>
-      <c r="R8" s="2"/>
+      <c r="R8" s="2">
+        <v>5</v>
+      </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="W8" t="s">
         <v>44</v>
@@ -1399,12 +1401,14 @@
       <c r="Q15" s="2">
         <v>5</v>
       </c>
-      <c r="R15" s="2"/>
+      <c r="R15" s="2">
+        <v>5</v>
+      </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="W15" t="s">
         <v>44</v>
